--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.49951278131949</v>
+        <v>2.475141333333333</v>
       </c>
       <c r="H2">
-        <v>1.49951278131949</v>
+        <v>7.425424</v>
       </c>
       <c r="I2">
-        <v>0.002573049129758162</v>
+        <v>0.004126344150637133</v>
       </c>
       <c r="J2">
-        <v>0.002573049129758162</v>
+        <v>0.004126344150637133</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.76365299125687</v>
+        <v>3.433022333333334</v>
       </c>
       <c r="N2">
-        <v>1.76365299125687</v>
+        <v>10.299067</v>
       </c>
       <c r="O2">
-        <v>0.1736685485939542</v>
+        <v>0.2851620693776887</v>
       </c>
       <c r="P2">
-        <v>0.1736685485939542</v>
+        <v>0.2851620693776887</v>
       </c>
       <c r="Q2">
-        <v>2.644620202202027</v>
+        <v>8.497215475489778</v>
       </c>
       <c r="R2">
-        <v>2.644620202202027</v>
+        <v>76.47493927940801</v>
       </c>
       <c r="S2">
-        <v>0.0004468577078260369</v>
+        <v>0.001176676836960206</v>
       </c>
       <c r="T2">
-        <v>0.0004468577078260369</v>
+        <v>0.001176676836960206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.49951278131949</v>
+        <v>2.475141333333333</v>
       </c>
       <c r="H3">
-        <v>1.49951278131949</v>
+        <v>7.425424</v>
       </c>
       <c r="I3">
-        <v>0.002573049129758162</v>
+        <v>0.004126344150637133</v>
       </c>
       <c r="J3">
-        <v>0.002573049129758162</v>
+        <v>0.004126344150637133</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.9627426790753</v>
+        <v>8.017154666666668</v>
       </c>
       <c r="N3">
-        <v>7.9627426790753</v>
+        <v>24.051464</v>
       </c>
       <c r="O3">
-        <v>0.784098669498829</v>
+        <v>0.6659404435181344</v>
       </c>
       <c r="P3">
-        <v>0.784098669498829</v>
+        <v>0.6659404435181344</v>
       </c>
       <c r="Q3">
-        <v>11.94023442163161</v>
+        <v>19.84359089119289</v>
       </c>
       <c r="R3">
-        <v>11.94023442163161</v>
+        <v>178.592318020736</v>
       </c>
       <c r="S3">
-        <v>0.002017524399198495</v>
+        <v>0.002747899453783752</v>
       </c>
       <c r="T3">
-        <v>0.002017524399198495</v>
+        <v>0.002747899453783752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.49951278131949</v>
+        <v>2.475141333333333</v>
       </c>
       <c r="H4">
-        <v>1.49951278131949</v>
+        <v>7.425424</v>
       </c>
       <c r="I4">
-        <v>0.002573049129758162</v>
+        <v>0.004126344150637133</v>
       </c>
       <c r="J4">
-        <v>0.002573049129758162</v>
+        <v>0.004126344150637133</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.428885786993645</v>
+        <v>0.5886693333333334</v>
       </c>
       <c r="N4">
-        <v>0.428885786993645</v>
+        <v>1.766008</v>
       </c>
       <c r="O4">
-        <v>0.0422327819072169</v>
+        <v>0.04889748710417684</v>
       </c>
       <c r="P4">
-        <v>0.0422327819072169</v>
+        <v>0.04889748710417684</v>
       </c>
       <c r="Q4">
-        <v>0.643119719323239</v>
+        <v>1.457039798599111</v>
       </c>
       <c r="R4">
-        <v>0.643119719323239</v>
+        <v>13.113358187392</v>
       </c>
       <c r="S4">
-        <v>0.0001086670227336307</v>
+        <v>0.0002017678598931747</v>
       </c>
       <c r="T4">
-        <v>0.0001086670227336307</v>
+        <v>0.0002017678598931747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>561.37428761097</v>
+        <v>577.349335</v>
       </c>
       <c r="H5">
-        <v>561.37428761097</v>
+        <v>1732.048005</v>
       </c>
       <c r="I5">
-        <v>0.9632752986173165</v>
+        <v>0.9625074816003053</v>
       </c>
       <c r="J5">
-        <v>0.9632752986173165</v>
+        <v>0.9625074816003053</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.76365299125687</v>
+        <v>3.433022333333334</v>
       </c>
       <c r="N5">
-        <v>1.76365299125687</v>
+        <v>10.299067</v>
       </c>
       <c r="O5">
-        <v>0.1736685485939542</v>
+        <v>0.2851620693776887</v>
       </c>
       <c r="P5">
-        <v>0.1736685485939542</v>
+        <v>0.2851620693776887</v>
       </c>
       <c r="Q5">
-        <v>990.0694415597816</v>
+        <v>1982.053161190149</v>
       </c>
       <c r="R5">
-        <v>990.0694415597816</v>
+        <v>17838.47845071134</v>
       </c>
       <c r="S5">
-        <v>0.1672906230072772</v>
+        <v>0.2744706252446507</v>
       </c>
       <c r="T5">
-        <v>0.1672906230072772</v>
+        <v>0.2744706252446507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>561.37428761097</v>
+        <v>577.349335</v>
       </c>
       <c r="H6">
-        <v>561.37428761097</v>
+        <v>1732.048005</v>
       </c>
       <c r="I6">
-        <v>0.9632752986173165</v>
+        <v>0.9625074816003053</v>
       </c>
       <c r="J6">
-        <v>0.9632752986173165</v>
+        <v>0.9625074816003053</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.9627426790753</v>
+        <v>8.017154666666668</v>
       </c>
       <c r="N6">
-        <v>7.9627426790753</v>
+        <v>24.051464</v>
       </c>
       <c r="O6">
-        <v>0.784098669498829</v>
+        <v>0.6659404435181344</v>
       </c>
       <c r="P6">
-        <v>0.784098669498829</v>
+        <v>0.6659404435181344</v>
       </c>
       <c r="Q6">
-        <v>4470.078998895363</v>
+        <v>4628.698915392148</v>
       </c>
       <c r="R6">
-        <v>4470.078998895363</v>
+        <v>41658.29023852933</v>
       </c>
       <c r="S6">
-        <v>0.7553028800069251</v>
+        <v>0.6409726591864299</v>
       </c>
       <c r="T6">
-        <v>0.7553028800069251</v>
+        <v>0.6409726591864299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>561.37428761097</v>
+        <v>577.349335</v>
       </c>
       <c r="H7">
-        <v>561.37428761097</v>
+        <v>1732.048005</v>
       </c>
       <c r="I7">
-        <v>0.9632752986173165</v>
+        <v>0.9625074816003053</v>
       </c>
       <c r="J7">
-        <v>0.9632752986173165</v>
+        <v>0.9625074816003053</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.428885786993645</v>
+        <v>0.5886693333333334</v>
       </c>
       <c r="N7">
-        <v>0.428885786993645</v>
+        <v>1.766008</v>
       </c>
       <c r="O7">
-        <v>0.0422327819072169</v>
+        <v>0.04889748710417684</v>
       </c>
       <c r="P7">
-        <v>0.0422327819072169</v>
+        <v>0.04889748710417684</v>
       </c>
       <c r="Q7">
-        <v>240.7654531400277</v>
+        <v>339.8678481348933</v>
       </c>
       <c r="R7">
-        <v>240.7654531400277</v>
+        <v>3058.81063321404</v>
       </c>
       <c r="S7">
-        <v>0.04068179560311436</v>
+        <v>0.04706419716922465</v>
       </c>
       <c r="T7">
-        <v>0.04068179560311436</v>
+        <v>0.04706419716922465</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.9027832248401</v>
+        <v>20.014326</v>
       </c>
       <c r="H8">
-        <v>19.9027832248401</v>
+        <v>60.04297800000001</v>
       </c>
       <c r="I8">
-        <v>0.03415165225292539</v>
+        <v>0.03336617424905757</v>
       </c>
       <c r="J8">
-        <v>0.03415165225292539</v>
+        <v>0.03336617424905757</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.76365299125687</v>
+        <v>3.433022333333334</v>
       </c>
       <c r="N8">
-        <v>1.76365299125687</v>
+        <v>10.299067</v>
       </c>
       <c r="O8">
-        <v>0.1736685485939542</v>
+        <v>0.2851620693776887</v>
       </c>
       <c r="P8">
-        <v>0.1736685485939542</v>
+        <v>0.2851620693776887</v>
       </c>
       <c r="Q8">
-        <v>35.10160316882629</v>
+        <v>68.709628144614</v>
       </c>
       <c r="R8">
-        <v>35.10160316882629</v>
+        <v>618.3866533015261</v>
       </c>
       <c r="S8">
-        <v>0.005931067878850997</v>
+        <v>0.009514767296077805</v>
       </c>
       <c r="T8">
-        <v>0.005931067878850997</v>
+        <v>0.009514767296077807</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.9027832248401</v>
+        <v>20.014326</v>
       </c>
       <c r="H9">
-        <v>19.9027832248401</v>
+        <v>60.04297800000001</v>
       </c>
       <c r="I9">
-        <v>0.03415165225292539</v>
+        <v>0.03336617424905757</v>
       </c>
       <c r="J9">
-        <v>0.03415165225292539</v>
+        <v>0.03336617424905757</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.9627426790753</v>
+        <v>8.017154666666668</v>
       </c>
       <c r="N9">
-        <v>7.9627426790753</v>
+        <v>24.051464</v>
       </c>
       <c r="O9">
-        <v>0.784098669498829</v>
+        <v>0.6659404435181344</v>
       </c>
       <c r="P9">
-        <v>0.784098669498829</v>
+        <v>0.6659404435181344</v>
       </c>
       <c r="Q9">
-        <v>158.4807414168182</v>
+        <v>160.457947091088</v>
       </c>
       <c r="R9">
-        <v>158.4807414168182</v>
+        <v>1444.121523819792</v>
       </c>
       <c r="S9">
-        <v>0.02677826509270548</v>
+        <v>0.02221988487792076</v>
       </c>
       <c r="T9">
-        <v>0.02677826509270548</v>
+        <v>0.02221988487792076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.9027832248401</v>
+        <v>20.014326</v>
       </c>
       <c r="H10">
-        <v>19.9027832248401</v>
+        <v>60.04297800000001</v>
       </c>
       <c r="I10">
-        <v>0.03415165225292539</v>
+        <v>0.03336617424905757</v>
       </c>
       <c r="J10">
-        <v>0.03415165225292539</v>
+        <v>0.03336617424905757</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.428885786993645</v>
+        <v>0.5886693333333334</v>
       </c>
       <c r="N10">
-        <v>0.428885786993645</v>
+        <v>1.766008</v>
       </c>
       <c r="O10">
-        <v>0.0422327819072169</v>
+        <v>0.04889748710417684</v>
       </c>
       <c r="P10">
-        <v>0.0422327819072169</v>
+        <v>0.04889748710417684</v>
       </c>
       <c r="Q10">
-        <v>8.536020846749462</v>
+        <v>11.781819943536</v>
       </c>
       <c r="R10">
-        <v>8.536020846749462</v>
+        <v>106.036379491824</v>
       </c>
       <c r="S10">
-        <v>0.001442319281368911</v>
+        <v>0.00163152207505901</v>
       </c>
       <c r="T10">
-        <v>0.001442319281368911</v>
+        <v>0.00163152207505901</v>
       </c>
     </row>
   </sheetData>
